--- a/biology/Zoologie/Ictinogomphus_ferox/Ictinogomphus_ferox.xlsx
+++ b/biology/Zoologie/Ictinogomphus_ferox/Ictinogomphus_ferox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinitogomphus, Ictinogomphus ferox
-Cinitogomphus dundoensis, unique représentant du genre Cinitogomphus, est une espèce monotypique de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates)[3].
+Cinitogomphus dundoensis, unique représentant du genre Cinitogomphus, est une espèce monotypique de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est parfois appelée par son synonyme de Ictinogomphus ferox[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est parfois appelée par son synonyme de Ictinogomphus ferox.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est mentionnée dans plusieurs pays d'Afrique : Angola, Botswana, Cameroun, République centrafricaine, Congo, La République démocratique du Congo, Ghana, Guinée, Kenya, Malawi, Mozambique, Namibie, Nigeria, Sierra Leone, Somalie, Afrique du Sud, Tanzanie, République-Unie du Togo, Ouganda, Zambie et au Zimbabwe[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est mentionnée dans plusieurs pays d'Afrique : Angola, Botswana, Cameroun, République centrafricaine, Congo, La République démocratique du Congo, Ghana, Guinée, Kenya, Malawi, Mozambique, Namibie, Nigeria, Sierra Leone, Somalie, Afrique du Sud, Tanzanie, République-Unie du Togo, Ouganda, Zambie et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinitogomphus dundoensis se retrouve dans les lacs, les rivières et les ruisseaux[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cinitogomphus dundoensis se retrouve dans les lacs, les rivières et les ruisseaux.
 </t>
         </is>
       </c>
